--- a/features.xlsx
+++ b/features.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">city_pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typically refers to the population of the city where the credit card transaction took place </t>
   </si>
   <si>
     <t xml:space="preserve">job</t>
@@ -190,6 +193,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -249,8 +253,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -379,454 +387,457 @@
   </sheetPr>
   <dimension ref="A4:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="56.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="60.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="56.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="61.48"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>3226281</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>17722</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>17722</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>686</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>17722</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>4929</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>9611</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>9301</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>9480</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>5903</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>14</v>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="0" t="n">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>639</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>23</v>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="0" t="n">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>12664</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="0" t="n">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>17722</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>29</v>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="0" t="n">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>31</v>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="0" t="n">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="n">
         <v>3226281</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>33</v>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="0" t="n">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>35</v>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="0" t="n">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <v>51155</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>37</v>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="0" t="n">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="n">
         <v>2131994</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="0" t="s">
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B25" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="0" t="n">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="n">
         <v>71968</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>44</v>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="0" t="n">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>46</v>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="0" t="n">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="n">
         <v>693</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>48</v>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="0" t="n">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="n">
         <v>2934870</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="0" t="n">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="n">
         <v>3094870</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="s">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
